--- a/Data Files/Test.xlsx
+++ b/Data Files/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anggi\Katalon Studio\Goaml Report\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CDB788-E874-4167-BE06-38E0D3F052A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D491F885-578C-4AEF-B37A-22F9C07B059E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Jenis Laporan</t>
   </si>
@@ -39,10 +39,28 @@
     <t>Sender Reference</t>
   </si>
   <si>
-    <t>TKLN-Transfer Keluar - LN Swift</t>
-  </si>
-  <si>
-    <t>Cara Transaksi</t>
+    <t>Cara Transaksi Dilakukan</t>
+  </si>
+  <si>
+    <t>TMLN-Transfer Masuk - LN Swift</t>
+  </si>
+  <si>
+    <t>From My Client</t>
+  </si>
+  <si>
+    <t>Istrumen Transaksi Asal</t>
+  </si>
+  <si>
+    <t>Rekening</t>
+  </si>
+  <si>
+    <t>Nilai Transaksi</t>
+  </si>
+  <si>
+    <t>Informasi Pengirim</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -360,19 +378,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,10 +402,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -391,7 +425,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1000000</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
